--- a/設計書/TrainTimer設計.xlsx
+++ b/設計書/TrainTimer設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="18135" windowHeight="8595"/>
+    <workbookView xWindow="5595" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面概要" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>路線名</t>
     <rPh sb="0" eb="2">
@@ -332,6 +332,170 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteListFragment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteListViewModel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteListData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RoteInfoFragment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfoViewModel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfoData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteDataAddUtil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteListDBData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfoDBData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteListViewModelFactory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfoViewModelFactory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>route_list_fragment.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>route_info_fragment.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteDataOperation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLiteデータ保持，取得関連</t>
+    <rPh sb="9" eb="11">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1路線情報表示</t>
+    <rPh sb="1" eb="3">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線情報操作(追加，更新)</t>
+    <rPh sb="0" eb="2">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteListDatabase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteListDatabaseDao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfoDatabase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfoDatabaseDao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteListAdapter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfoAdapter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteInfoBindingUtil</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親データ番号</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -702,13 +866,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -759,13 +923,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>14288</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -808,13 +972,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -868,13 +1032,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -915,13 +1079,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -962,13 +1126,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1009,13 +1173,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1074,13 +1238,13 @@
     <xdr:from>
       <xdr:col>55</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1123,13 +1287,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1183,13 +1347,13 @@
     <xdr:from>
       <xdr:col>54</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1230,13 +1394,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1292,13 +1456,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1614,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="N2:BH38"/>
+  <dimension ref="N4:BH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE20" sqref="AE20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1625,233 +1789,133 @@
     <col min="1" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N2" s="24" t="s">
+    <row r="4" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="4"/>
-    </row>
-    <row r="3" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="7"/>
-    </row>
-    <row r="4" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="10"/>
-    </row>
-    <row r="5" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="4"/>
     </row>
     <row r="6" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="10"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="7"/>
-      <c r="AD6" s="1" t="s">
+      <c r="AA6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="7"/>
+    </row>
+    <row r="7" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="10"/>
+    </row>
+    <row r="8" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="7"/>
+      <c r="AD9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N7" s="5" t="s">
+      <c r="AQ9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="7"/>
-      <c r="AD7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="4"/>
-    </row>
-    <row r="8" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="10"/>
-      <c r="AH8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="4"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="29"/>
-      <c r="AT8" s="29"/>
-      <c r="AU8" s="29"/>
-      <c r="AV8" s="29"/>
-      <c r="AW8" s="29"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="29"/>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="30"/>
-      <c r="BC8" s="7"/>
-    </row>
-    <row r="9" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N9" s="2"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="4"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="7"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="33"/>
-      <c r="BC9" s="7"/>
-    </row>
-    <row r="10" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N10" s="5"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -1865,125 +1929,136 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="7"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9" t="s">
+      <c r="AD10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="4"/>
+    </row>
+    <row r="11" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="10"/>
+      <c r="AH11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="4"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="7"/>
+    </row>
+    <row r="12" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N12" s="2"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="4"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="7"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="7"/>
+    </row>
+    <row r="13" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="7"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AL10" s="9" t="s">
+      <c r="AL13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AM10" s="10"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="32"/>
-      <c r="AT10" s="32"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="32"/>
-      <c r="AW10" s="32"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="32"/>
-      <c r="AZ10" s="32"/>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="33"/>
-      <c r="BC10" s="7"/>
-    </row>
-    <row r="11" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="7"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="35"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="35"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="35"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="7"/>
-      <c r="BD11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="10"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="39"/>
-      <c r="BC12" s="7"/>
-      <c r="BH12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N13" s="2"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="4"/>
+      <c r="AM13" s="10"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6"/>
-      <c r="AU13" s="6"/>
-      <c r="AV13" s="6"/>
-      <c r="AW13" s="6"/>
-      <c r="AX13" s="6"/>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="6"/>
-      <c r="BB13" s="6"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="33"/>
       <c r="BC13" s="7"/>
     </row>
     <row r="14" spans="14:60" x14ac:dyDescent="0.15">
@@ -2002,125 +2077,117 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="7"/>
       <c r="AQ14" s="5"/>
-      <c r="AR14" s="21" t="s">
+      <c r="AR14" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="10"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="7"/>
+      <c r="BH15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="14:60" x14ac:dyDescent="0.15">
+      <c r="N16" s="2"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="4"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="7"/>
+    </row>
+    <row r="17" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="7"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="6"/>
-      <c r="AV14" s="6"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="6"/>
-      <c r="BC14" s="7"/>
-    </row>
-    <row r="15" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="7"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS15" s="6"/>
-      <c r="AT15" s="6"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="22">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="22">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="22">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="7"/>
-    </row>
-    <row r="16" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="10"/>
-      <c r="AQ16" s="8"/>
-      <c r="AR16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AS16" s="9"/>
-      <c r="AT16" s="9"/>
-      <c r="AU16" s="9"/>
-      <c r="AV16" s="9"/>
-      <c r="AW16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX16" s="23"/>
-      <c r="AY16" s="23"/>
-      <c r="AZ16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="23"/>
-      <c r="BC16" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N17" s="2"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="4"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="4"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="7"/>
     </row>
     <row r="18" spans="14:55" x14ac:dyDescent="0.15">
       <c r="N18" s="5"/>
@@ -2138,69 +2205,81 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="7"/>
       <c r="AQ18" s="5"/>
-      <c r="AR18" s="21" t="s">
-        <v>36</v>
+      <c r="AR18" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
-      <c r="AU18" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="6" t="s">
+      <c r="AX18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="22">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="22">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="7"/>
+    </row>
+    <row r="19" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="10"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="6"/>
-      <c r="BB18" s="6"/>
-      <c r="BC18" s="7"/>
-    </row>
-    <row r="19" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="7"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="9"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="9"/>
-      <c r="AY19" s="9"/>
-      <c r="AZ19" s="9"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="9"/>
-      <c r="BC19" s="10"/>
+      <c r="AW19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="10"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="4"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
@@ -2216,28 +2295,34 @@
       <c r="BC20" s="4"/>
     </row>
     <row r="21" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N21" s="2"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="4"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="7"/>
       <c r="AQ21" s="5"/>
-      <c r="AR21" s="6"/>
+      <c r="AR21" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
-      <c r="AU21" s="6"/>
+      <c r="AU21" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
-      <c r="AX21" s="6"/>
+      <c r="AX21" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="AY21" s="6"/>
       <c r="AZ21" s="6"/>
       <c r="BA21" s="6"/>
@@ -2274,20 +2359,20 @@
       <c r="BC22" s="10"/>
     </row>
     <row r="23" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N23" s="5"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="7"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="10"/>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
@@ -2303,20 +2388,20 @@
       <c r="BC23" s="4"/>
     </row>
     <row r="24" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="10"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="4"/>
       <c r="AQ24" s="5"/>
       <c r="AR24" s="6"/>
       <c r="AS24" s="6"/>
@@ -2390,20 +2475,20 @@
       <c r="BC26" s="4"/>
     </row>
     <row r="27" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N27" s="5"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="7"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="10"/>
       <c r="AQ27" s="5"/>
       <c r="AR27" s="6"/>
       <c r="AS27" s="6"/>
@@ -2506,20 +2591,20 @@
       <c r="BC30" s="7"/>
     </row>
     <row r="31" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="10"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="7"/>
       <c r="AQ31" s="8"/>
       <c r="AR31" s="9"/>
       <c r="AS31" s="9"/>
@@ -2535,6 +2620,20 @@
       <c r="BC31" s="10"/>
     </row>
     <row r="32" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="7"/>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
@@ -2549,7 +2648,21 @@
       <c r="BB32" s="3"/>
       <c r="BC32" s="4"/>
     </row>
-    <row r="33" spans="43:55" x14ac:dyDescent="0.15">
+    <row r="33" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="7"/>
       <c r="AQ33" s="5"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -2564,7 +2677,21 @@
       <c r="BB33" s="6"/>
       <c r="BC33" s="7"/>
     </row>
-    <row r="34" spans="43:55" x14ac:dyDescent="0.15">
+    <row r="34" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="N34" s="8"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="10"/>
       <c r="AQ34" s="8"/>
       <c r="AR34" s="9"/>
       <c r="AS34" s="9"/>
@@ -2579,7 +2706,7 @@
       <c r="BB34" s="9"/>
       <c r="BC34" s="10"/>
     </row>
-    <row r="35" spans="43:55" x14ac:dyDescent="0.15">
+    <row r="35" spans="14:55" x14ac:dyDescent="0.15">
       <c r="AQ35" s="2"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
@@ -2594,7 +2721,7 @@
       <c r="BB35" s="3"/>
       <c r="BC35" s="4"/>
     </row>
-    <row r="36" spans="43:55" x14ac:dyDescent="0.15">
+    <row r="36" spans="14:55" x14ac:dyDescent="0.15">
       <c r="AQ36" s="5"/>
       <c r="AR36" s="6"/>
       <c r="AS36" s="6"/>
@@ -2609,7 +2736,7 @@
       <c r="BB36" s="6"/>
       <c r="BC36" s="7"/>
     </row>
-    <row r="37" spans="43:55" x14ac:dyDescent="0.15">
+    <row r="37" spans="14:55" x14ac:dyDescent="0.15">
       <c r="AQ37" s="8"/>
       <c r="AR37" s="9"/>
       <c r="AS37" s="9"/>
@@ -2624,22 +2751,67 @@
       <c r="BB37" s="9"/>
       <c r="BC37" s="10"/>
     </row>
-    <row r="38" spans="43:55" x14ac:dyDescent="0.15">
-      <c r="AQ38" s="17" t="s">
+    <row r="38" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="3"/>
+      <c r="AW38" s="3"/>
+      <c r="AX38" s="3"/>
+      <c r="AY38" s="3"/>
+      <c r="AZ38" s="3"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="4"/>
+    </row>
+    <row r="39" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39" s="6"/>
+      <c r="AU39" s="6"/>
+      <c r="AV39" s="6"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6"/>
+      <c r="BA39" s="6"/>
+      <c r="BB39" s="6"/>
+      <c r="BC39" s="7"/>
+    </row>
+    <row r="40" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="9"/>
+      <c r="AT40" s="9"/>
+      <c r="AU40" s="9"/>
+      <c r="AV40" s="9"/>
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="9"/>
+      <c r="AY40" s="9"/>
+      <c r="AZ40" s="9"/>
+      <c r="BA40" s="9"/>
+      <c r="BB40" s="9"/>
+      <c r="BC40" s="10"/>
+    </row>
+    <row r="41" spans="14:55" x14ac:dyDescent="0.15">
+      <c r="AQ41" s="17" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AX15:AX16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="BB15:BB16"/>
-    <mergeCell ref="N2:W3"/>
-    <mergeCell ref="AR8:BB8"/>
-    <mergeCell ref="AR9:BB10"/>
+    <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="BB18:BB19"/>
+    <mergeCell ref="N5:W6"/>
     <mergeCell ref="AR11:BB11"/>
-    <mergeCell ref="AR12:BB12"/>
+    <mergeCell ref="AR12:BB13"/>
+    <mergeCell ref="AR14:BB14"/>
+    <mergeCell ref="AR15:BB15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2650,25 +2822,154 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:L7"/>
+  <dimension ref="B4:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2679,11 +2980,13 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
+    <col min="12" max="13" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
@@ -2691,7 +2994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
@@ -2711,19 +3014,22 @@
         <v>9</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
@@ -2745,17 +3051,20 @@
       <c r="I6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
@@ -2774,16 +3083,19 @@
       <c r="G7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="15">
+      <c r="K7" s="15">
         <v>0</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/設計書/TrainTimer設計.xlsx
+++ b/設計書/TrainTimer設計.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="2"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="18135" windowHeight="8595"/>
   </bookViews>
   <sheets>
     <sheet name="画面概要" sheetId="1" r:id="rId1"/>
     <sheet name="クラス分割" sheetId="3" r:id="rId2"/>
     <sheet name="データ構造" sheetId="2" r:id="rId3"/>
+    <sheet name="作業タスク一覧" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>路線名</t>
     <rPh sb="0" eb="2">
@@ -52,23 +53,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>保持データ</t>
-    <rPh sb="0" eb="2">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データ番号(連番)</t>
-    <rPh sb="3" eb="5">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レンバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ取得元URL</t>
     <rPh sb="3" eb="5">
       <t>シュトク</t>
@@ -88,13 +72,6 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細データ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -216,10 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ListView</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -380,10 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>route_list_fragment.xml</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>route_info_fragment.xml</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,6 +465,375 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>route_list_fragment.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クエリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線データ一覧取得</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線データ追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線データ更新</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線データ削除</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細データ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細データ一覧取得</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細データ追加</t>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細データ削除</t>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細データ更新</t>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線データ全削除</t>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細データ全削除</t>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細データ一覧取得(親ID指定)</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データID(連番)</t>
+    <rPh sb="6" eb="8">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧画面作成</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧操作メニュー作成</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧追加</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧検索</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧解析</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧登録</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧削除</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧並び替え</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO*DBに並び順を追加？</t>
+    <rPh sb="8" eb="9">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線情報画面作成</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線情報表示</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の電車までの時間表示</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時刻一覧表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在時刻より前のものはグレーアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダークテーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧データ削除</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線一覧データ取得</t>
+    <rPh sb="0" eb="4">
+      <t>ロセンイチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト選択時のカウントダウン</t>
+    <rPh sb="3" eb="6">
+      <t>センタクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平日，土日祝日切り替え</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイジツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドニチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュクジツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -546,7 +884,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +906,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +1114,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +1135,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,6 +1194,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1780,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N4:BH41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1791,63 +2147,63 @@
   <sheetData>
     <row r="4" spans="14:60" x14ac:dyDescent="0.15">
       <c r="N4" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
+      <c r="N5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="18" t="s">
-        <v>24</v>
+      <c r="AA5" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AR5" s="3"/>
       <c r="AS5" s="4"/>
     </row>
     <row r="6" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="19" t="s">
-        <v>24</v>
+      <c r="AA6" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AR6" s="6"/>
       <c r="AS6" s="7"/>
     </row>
     <row r="7" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N7" s="17" t="s">
-        <v>23</v>
+      <c r="N7" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -1861,11 +2217,11 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="20" t="s">
+      <c r="AA7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ7" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="AQ7" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="AR7" s="9"/>
       <c r="AS7" s="10"/>
@@ -1906,10 +2262,10 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="7"/>
       <c r="AD9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="14:60" x14ac:dyDescent="0.15">
@@ -1930,7 +2286,7 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="7"/>
       <c r="AD10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="3"/>
@@ -1962,7 +2318,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="10"/>
       <c r="AH11" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
@@ -1970,19 +2326,19 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="4"/>
       <c r="AQ11" s="5"/>
-      <c r="AR11" s="28" t="s">
+      <c r="AR11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="31"/>
       <c r="BC11" s="7"/>
     </row>
     <row r="12" spans="14:60" x14ac:dyDescent="0.15">
@@ -2007,19 +2363,19 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="7"/>
       <c r="AQ12" s="5"/>
-      <c r="AR12" s="31" t="s">
+      <c r="AR12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AS12" s="32"/>
-      <c r="AT12" s="32"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="32"/>
-      <c r="AW12" s="32"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="32"/>
-      <c r="AZ12" s="32"/>
-      <c r="BA12" s="32"/>
-      <c r="BB12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="34"/>
       <c r="BC12" s="7"/>
     </row>
     <row r="13" spans="14:60" x14ac:dyDescent="0.15">
@@ -2041,24 +2397,24 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL13" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AM13" s="10"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="32"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="32"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="33"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="34"/>
       <c r="BC13" s="7"/>
     </row>
     <row r="14" spans="14:60" x14ac:dyDescent="0.15">
@@ -2077,22 +2433,22 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="7"/>
       <c r="AQ14" s="5"/>
-      <c r="AR14" s="34" t="s">
+      <c r="AR14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AS14" s="35"/>
-      <c r="AT14" s="35"/>
-      <c r="AU14" s="35"/>
-      <c r="AV14" s="35"/>
-      <c r="AW14" s="35"/>
-      <c r="AX14" s="35"/>
-      <c r="AY14" s="35"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="35"/>
-      <c r="BB14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+      <c r="AZ14" s="36"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="37"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="14:60" x14ac:dyDescent="0.15">
@@ -2111,22 +2467,22 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="10"/>
       <c r="AQ15" s="5"/>
-      <c r="AR15" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
-      <c r="BB15" s="39"/>
+      <c r="AR15" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="40"/>
       <c r="BC15" s="7"/>
       <c r="BH15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="14:60" x14ac:dyDescent="0.15">
@@ -2174,8 +2530,8 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="7"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="21" t="s">
-        <v>36</v>
+      <c r="AR17" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="AS17" s="6"/>
       <c r="AT17" s="6"/>
@@ -2206,24 +2562,24 @@
       <c r="AA18" s="7"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AS18" s="6"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="22">
+      <c r="AX18" s="23">
         <v>0</v>
       </c>
-      <c r="AY18" s="22">
+      <c r="AY18" s="23">
         <v>0</v>
       </c>
       <c r="AZ18" s="6"/>
-      <c r="BA18" s="22">
+      <c r="BA18" s="23">
         <v>0</v>
       </c>
-      <c r="BB18" s="22">
+      <c r="BB18" s="23">
         <v>0</v>
       </c>
       <c r="BC18" s="7"/>
@@ -2245,24 +2601,24 @@
       <c r="AA19" s="10"/>
       <c r="AQ19" s="8"/>
       <c r="AR19" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
       <c r="AV19" s="9"/>
       <c r="AW19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX19" s="23"/>
-      <c r="AY19" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
       <c r="AZ19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA19" s="23"/>
-      <c r="BB19" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
       <c r="BC19" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="14:55" x14ac:dyDescent="0.15">
@@ -2310,18 +2666,18 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="7"/>
       <c r="AQ21" s="5"/>
-      <c r="AR21" s="21" t="s">
-        <v>36</v>
+      <c r="AR21" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AY21" s="6"/>
       <c r="AZ21" s="6"/>
@@ -2797,8 +3153,8 @@
       <c r="BC40" s="10"/>
     </row>
     <row r="41" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="AQ41" s="17" t="s">
-        <v>23</v>
+      <c r="AQ41" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2825,136 +3181,136 @@
   <dimension ref="B2:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2966,11 +3322,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M7"/>
+  <dimension ref="B4:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2979,24 +3333,24 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
-    <col min="12" max="13" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" customWidth="1"/>
+    <col min="11" max="12" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>0</v>
@@ -3007,103 +3361,305 @@
       <c r="E5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="D6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>16</v>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="M7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C3" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D14" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D15" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D16" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D18" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/設計書/TrainTimer設計.xlsx
+++ b/設計書/TrainTimer設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="18135" windowHeight="8595"/>
+    <workbookView xWindow="11175" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面概要" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
   <si>
     <t>路線名</t>
     <rPh sb="0" eb="2">
@@ -680,16 +680,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>路線一覧削除</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>路線一覧並び替え</t>
     <rPh sb="0" eb="4">
       <t>ロセンイチラン</t>
@@ -835,6 +825,52 @@
     <rPh sb="9" eb="10">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定画面作成</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RouteSearch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線検索時画面</t>
+    <rPh sb="0" eb="2">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SearchTargetInputDialogFragment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SettingFragmnet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StationSelectDialogFragment</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1141,6 +1177,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,9 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2136,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N4:BH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS5" sqref="AS5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2151,18 +2187,18 @@
       </c>
     </row>
     <row r="5" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -2176,16 +2212,16 @@
       <c r="AS5" s="4"/>
     </row>
     <row r="6" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N6" s="27"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -2203,7 +2239,7 @@
     </row>
     <row r="7" spans="14:60" x14ac:dyDescent="0.15">
       <c r="N7" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
@@ -2326,19 +2362,19 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="4"/>
       <c r="AQ11" s="5"/>
-      <c r="AR11" s="29" t="s">
+      <c r="AR11" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
-      <c r="AU11" s="30"/>
-      <c r="AV11" s="30"/>
-      <c r="AW11" s="30"/>
-      <c r="AX11" s="30"/>
-      <c r="AY11" s="30"/>
-      <c r="AZ11" s="30"/>
-      <c r="BA11" s="30"/>
-      <c r="BB11" s="31"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="32"/>
       <c r="BC11" s="7"/>
     </row>
     <row r="12" spans="14:60" x14ac:dyDescent="0.15">
@@ -2363,19 +2399,19 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="7"/>
       <c r="AQ12" s="5"/>
-      <c r="AR12" s="32" t="s">
+      <c r="AR12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="35"/>
       <c r="BC12" s="7"/>
     </row>
     <row r="13" spans="14:60" x14ac:dyDescent="0.15">
@@ -2404,17 +2440,17 @@
       </c>
       <c r="AM13" s="10"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
-      <c r="AX13" s="33"/>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="33"/>
-      <c r="BA13" s="33"/>
-      <c r="BB13" s="34"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="34"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="34"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="34"/>
+      <c r="BB13" s="35"/>
       <c r="BC13" s="7"/>
     </row>
     <row r="14" spans="14:60" x14ac:dyDescent="0.15">
@@ -2433,19 +2469,19 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="7"/>
       <c r="AQ14" s="5"/>
-      <c r="AR14" s="35" t="s">
+      <c r="AR14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="37"/>
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="37"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="38"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="1" t="s">
         <v>38</v>
@@ -2467,19 +2503,19 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="10"/>
       <c r="AQ15" s="5"/>
-      <c r="AR15" s="38" t="s">
+      <c r="AR15" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
-      <c r="AU15" s="39"/>
-      <c r="AV15" s="39"/>
-      <c r="AW15" s="39"/>
-      <c r="AX15" s="39"/>
-      <c r="AY15" s="39"/>
-      <c r="AZ15" s="39"/>
-      <c r="BA15" s="39"/>
-      <c r="BB15" s="40"/>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
+      <c r="BB15" s="41"/>
       <c r="BC15" s="7"/>
       <c r="BH15" s="1" t="s">
         <v>39</v>
@@ -2569,17 +2605,17 @@
       <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="23">
+      <c r="AX18" s="24">
         <v>0</v>
       </c>
-      <c r="AY18" s="23">
+      <c r="AY18" s="24">
         <v>0</v>
       </c>
       <c r="AZ18" s="6"/>
-      <c r="BA18" s="23">
+      <c r="BA18" s="24">
         <v>0</v>
       </c>
-      <c r="BB18" s="23">
+      <c r="BB18" s="24">
         <v>0</v>
       </c>
       <c r="BC18" s="7"/>
@@ -2610,13 +2646,13 @@
       <c r="AW19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
       <c r="AZ19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
       <c r="BC19" s="10" t="s">
         <v>36</v>
       </c>
@@ -3154,7 +3190,7 @@
     </row>
     <row r="41" spans="14:55" x14ac:dyDescent="0.15">
       <c r="AQ41" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3178,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L28"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3311,6 +3347,34 @@
     <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="L30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3533,10 +3597,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G22"/>
+  <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3552,27 +3616,27 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
+      <c r="C5" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
@@ -3603,58 +3667,58 @@
       <c r="E11" t="s">
         <v>93</v>
       </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="C12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+      <c r="D13" s="23" t="s">
         <v>96</v>
       </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D16" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41" t="s">
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D18" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/TrainTimer設計.xlsx
+++ b/設計書/TrainTimer設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="12105" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面概要" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="118">
   <si>
     <t>路線名</t>
     <rPh sb="0" eb="2">
@@ -871,6 +871,38 @@
   </si>
   <si>
     <t>StationSelectDialogFragment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示フィルタ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リストア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不具合関連</t>
+    <rPh sb="0" eb="3">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1107,7 +1139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,9 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,6 +1262,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2187,18 +2222,18 @@
       </c>
     </row>
     <row r="5" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -2212,16 +2247,16 @@
       <c r="AS5" s="4"/>
     </row>
     <row r="6" spans="14:60" x14ac:dyDescent="0.15">
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
       <c r="X6" s="10"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -2362,19 +2397,19 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="4"/>
       <c r="AQ11" s="5"/>
-      <c r="AR11" s="30" t="s">
+      <c r="AR11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="32"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="31"/>
       <c r="BC11" s="7"/>
     </row>
     <row r="12" spans="14:60" x14ac:dyDescent="0.15">
@@ -2399,19 +2434,19 @@
       <c r="AL12" s="6"/>
       <c r="AM12" s="7"/>
       <c r="AQ12" s="5"/>
-      <c r="AR12" s="33" t="s">
+      <c r="AR12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
-      <c r="BB12" s="35"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="34"/>
       <c r="BC12" s="7"/>
     </row>
     <row r="13" spans="14:60" x14ac:dyDescent="0.15">
@@ -2440,17 +2475,17 @@
       </c>
       <c r="AM13" s="10"/>
       <c r="AQ13" s="5"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="34"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="34"/>
-      <c r="BB13" s="35"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="33"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="33"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="34"/>
       <c r="BC13" s="7"/>
     </row>
     <row r="14" spans="14:60" x14ac:dyDescent="0.15">
@@ -2469,19 +2504,19 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="7"/>
       <c r="AQ14" s="5"/>
-      <c r="AR14" s="36" t="s">
+      <c r="AR14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="37"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="37"/>
-      <c r="AZ14" s="37"/>
-      <c r="BA14" s="37"/>
-      <c r="BB14" s="38"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+      <c r="AZ14" s="36"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="37"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="1" t="s">
         <v>38</v>
@@ -2503,19 +2538,19 @@
       <c r="Z15" s="9"/>
       <c r="AA15" s="10"/>
       <c r="AQ15" s="5"/>
-      <c r="AR15" s="39" t="s">
+      <c r="AR15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="40"/>
-      <c r="AV15" s="40"/>
-      <c r="AW15" s="40"/>
-      <c r="AX15" s="40"/>
-      <c r="AY15" s="40"/>
-      <c r="AZ15" s="40"/>
-      <c r="BA15" s="40"/>
-      <c r="BB15" s="41"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="40"/>
       <c r="BC15" s="7"/>
       <c r="BH15" s="1" t="s">
         <v>39</v>
@@ -2605,17 +2640,17 @@
       <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
-      <c r="AX18" s="24">
+      <c r="AX18" s="23">
         <v>0</v>
       </c>
-      <c r="AY18" s="24">
+      <c r="AY18" s="23">
         <v>0</v>
       </c>
       <c r="AZ18" s="6"/>
-      <c r="BA18" s="24">
+      <c r="BA18" s="23">
         <v>0</v>
       </c>
-      <c r="BB18" s="24">
+      <c r="BB18" s="23">
         <v>0</v>
       </c>
       <c r="BC18" s="7"/>
@@ -2646,13 +2681,13 @@
       <c r="AW19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="25"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
       <c r="AZ19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="25"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
       <c r="BC19" s="10" t="s">
         <v>36</v>
       </c>
@@ -3216,7 +3251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -3597,128 +3632,226 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G21"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C3" s="23" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="11"/>
+      <c r="C3" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="11"/>
+      <c r="C4" s="41" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C5" s="23" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="11"/>
+      <c r="C5" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D7" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="11"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E8" t="s">
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="11"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="11"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E10" t="s">
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="11"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E11" t="s">
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C12" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D13" s="23" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D14" s="23" t="s">
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D15" s="23" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="41"/>
+      <c r="F15" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D17" s="23" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
         <v>100</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/TrainTimer設計.xlsx
+++ b/設計書/TrainTimer設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="0" windowWidth="18135" windowHeight="8595"/>
+    <workbookView xWindow="13035" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面概要" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>路線名</t>
     <rPh sb="0" eb="2">
@@ -1081,6 +1081,73 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再取得</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>路線詳細全検索並列化</t>
+    <rPh sb="0" eb="2">
+      <t>ロセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBへの変更はViewModelを経由させる．Fragmentでは直接操作しない</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細画面表示の画面回転対応</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2703,7 +2770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BU78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BM51" sqref="BM51"/>
     </sheetView>
   </sheetViews>
@@ -5044,10 +5111,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5153,27 +5220,27 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -5182,55 +5249,55 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
@@ -5238,7 +5305,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -5247,23 +5314,47 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/TrainTimer設計.xlsx
+++ b/設計書/TrainTimer設計.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="3"/>
+    <workbookView xWindow="13965" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面概要" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
   <si>
     <t>路線名</t>
     <rPh sb="0" eb="2">
@@ -1148,6 +1148,19 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解析件数表示？</t>
+    <rPh sb="0" eb="2">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1348,7 +1361,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,6 +1391,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,64 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2776,88 +2792,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="22"/>
+    <col min="1" max="16384" width="3.125" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
-      <c r="AP2" s="40"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="40"/>
-      <c r="AT2" s="40"/>
-      <c r="AU2" s="40"/>
-      <c r="AV2" s="40"/>
-      <c r="AW2" s="40"/>
-      <c r="AX2" s="40"/>
-      <c r="AY2" s="40"/>
-      <c r="AZ2" s="40"/>
-      <c r="BA2" s="40"/>
-      <c r="BB2" s="40"/>
-      <c r="BC2" s="40"/>
-      <c r="BD2" s="40"/>
-      <c r="BE2" s="40"/>
-      <c r="BF2" s="40"/>
-      <c r="BG2" s="40"/>
-      <c r="BH2" s="40"/>
-      <c r="BI2" s="40"/>
-      <c r="BJ2" s="40"/>
-      <c r="BK2" s="40"/>
-      <c r="BL2" s="40"/>
-      <c r="BM2" s="40"/>
-      <c r="BN2" s="40"/>
-      <c r="BO2" s="40"/>
-      <c r="BP2" s="40"/>
-      <c r="BQ2" s="40"/>
-      <c r="BR2" s="40"/>
-      <c r="BS2" s="40"/>
-      <c r="BT2" s="40"/>
-      <c r="BU2" s="40"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+      <c r="AQ2" s="22"/>
+      <c r="AR2" s="22"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="10" t="s">
         <v>64</v>
       </c>
       <c r="AP4"/>
@@ -2867,26 +2883,26 @@
       <c r="AT4"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="26" t="s">
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26" t="s">
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AA5" s="25"/>
+      <c r="AA5" s="11"/>
       <c r="AP5"/>
       <c r="AQ5"/>
       <c r="AR5"/>
@@ -2894,21 +2910,21 @@
       <c r="AT5"/>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N6" s="28"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="33"/>
-      <c r="AJ6" s="22" t="s">
+      <c r="N6" s="26"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="17"/>
+      <c r="AJ6" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AP6"/>
@@ -2918,24 +2934,24 @@
       <c r="AT6"/>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="30"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="14"/>
       <c r="AP7"/>
-      <c r="AQ7" s="22" t="s">
+      <c r="AQ7" s="10" t="s">
         <v>47</v>
       </c>
       <c r="AR7"/>
@@ -2943,1781 +2959,1781 @@
       <c r="AT7"/>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="25"/>
-      <c r="AQ8" s="23" t="s">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="11"/>
+      <c r="AQ8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="24"/>
-      <c r="AX8" s="24"/>
-      <c r="AY8" s="24"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="26" t="s">
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="BB8" s="26"/>
-      <c r="BC8" s="25"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="11"/>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="33"/>
-      <c r="AD9" s="22" t="s">
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="17"/>
+      <c r="AD9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AQ9" s="28"/>
-      <c r="AR9" s="29"/>
-      <c r="AS9" s="29"/>
-      <c r="AT9" s="29"/>
-      <c r="AU9" s="29"/>
-      <c r="AV9" s="29"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="31"/>
-      <c r="BC9" s="33"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27"/>
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27"/>
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="17"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N10" s="32" t="s">
+      <c r="N10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="33"/>
-      <c r="AD10" s="22" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="17"/>
+      <c r="AD10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="26"/>
-      <c r="AY10" s="26"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="26"/>
-      <c r="BC10" s="25"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="11"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N11" s="36"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="30"/>
-      <c r="AH11" s="27" t="s">
+      <c r="N11" s="20"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="14"/>
+      <c r="AH11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AI11" s="26"/>
-      <c r="AJ11" s="26"/>
-      <c r="AK11" s="26"/>
-      <c r="AL11" s="26"/>
-      <c r="AM11" s="25"/>
-      <c r="AQ11" s="32"/>
-      <c r="AR11" s="10" t="s">
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="11"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AS11" s="11"/>
-      <c r="AT11" s="11"/>
-      <c r="AU11" s="11"/>
-      <c r="AV11" s="11"/>
-      <c r="AW11" s="11"/>
-      <c r="AX11" s="11"/>
-      <c r="AY11" s="11"/>
-      <c r="AZ11" s="11"/>
-      <c r="BA11" s="11"/>
-      <c r="BB11" s="12"/>
-      <c r="BC11" s="33"/>
+      <c r="AS11" s="31"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="17"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N12" s="27"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="25"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="33"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="13" t="s">
+      <c r="N12" s="13"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="11"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="17"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="33"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="34"/>
+      <c r="BB12" s="35"/>
+      <c r="BC12" s="17"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N13" s="32"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="33"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35" t="s">
+      <c r="N13" s="16"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="17"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AL13" s="35" t="s">
+      <c r="AL13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AM13" s="30"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="33"/>
+      <c r="AM13" s="14"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="34"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="34"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="34"/>
+      <c r="AY13" s="34"/>
+      <c r="AZ13" s="34"/>
+      <c r="BA13" s="34"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="17"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N14" s="32"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="33"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="16" t="s">
+      <c r="N14" s="16"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="17"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="22" t="s">
+      <c r="AS14" s="37"/>
+      <c r="AT14" s="37"/>
+      <c r="AU14" s="37"/>
+      <c r="AV14" s="37"/>
+      <c r="AW14" s="37"/>
+      <c r="AX14" s="37"/>
+      <c r="AY14" s="37"/>
+      <c r="AZ14" s="37"/>
+      <c r="BA14" s="37"/>
+      <c r="BB14" s="38"/>
+      <c r="BC14" s="17"/>
+      <c r="BD14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N15" s="36"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="30"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="19" t="s">
+      <c r="N15" s="20"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="14"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AS15" s="20"/>
-      <c r="AT15" s="20"/>
-      <c r="AU15" s="20"/>
-      <c r="AV15" s="20"/>
-      <c r="AW15" s="20"/>
-      <c r="AX15" s="20"/>
-      <c r="AY15" s="20"/>
-      <c r="AZ15" s="20"/>
-      <c r="BA15" s="20"/>
-      <c r="BB15" s="21"/>
-      <c r="BC15" s="33"/>
-      <c r="BH15" s="22" t="s">
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="40"/>
+      <c r="AU15" s="40"/>
+      <c r="AV15" s="40"/>
+      <c r="AW15" s="40"/>
+      <c r="AX15" s="40"/>
+      <c r="AY15" s="40"/>
+      <c r="AZ15" s="40"/>
+      <c r="BA15" s="40"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="17"/>
+      <c r="BH15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N16" s="27"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="25"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="31"/>
-      <c r="AS16" s="31"/>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="31"/>
-      <c r="AV16" s="31"/>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="31"/>
-      <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
-      <c r="BB16" s="31"/>
-      <c r="BC16" s="33"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="11"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="15"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="15"/>
+      <c r="AU16" s="15"/>
+      <c r="AV16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15"/>
+      <c r="AZ16" s="15"/>
+      <c r="BA16" s="15"/>
+      <c r="BB16" s="15"/>
+      <c r="BC16" s="17"/>
     </row>
     <row r="17" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N17" s="32"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="33"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="38" t="s">
+      <c r="N17" s="16"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="17"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
-      <c r="BB17" s="31"/>
-      <c r="BC17" s="33"/>
+      <c r="AS17" s="15"/>
+      <c r="AT17" s="15"/>
+      <c r="AU17" s="15"/>
+      <c r="AV17" s="15"/>
+      <c r="AW17" s="15"/>
+      <c r="AX17" s="15"/>
+      <c r="AY17" s="15"/>
+      <c r="AZ17" s="15"/>
+      <c r="BA17" s="15"/>
+      <c r="BB17" s="15"/>
+      <c r="BC17" s="17"/>
     </row>
     <row r="18" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N18" s="32"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="33"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="31" t="s">
+      <c r="N18" s="16"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="17"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="37">
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="28">
         <v>0</v>
       </c>
-      <c r="AY18" s="37">
+      <c r="AY18" s="28">
         <v>0</v>
       </c>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="37">
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="28">
         <v>0</v>
       </c>
-      <c r="BB18" s="37">
+      <c r="BB18" s="28">
         <v>0</v>
       </c>
-      <c r="BC18" s="33"/>
+      <c r="BC18" s="17"/>
     </row>
     <row r="19" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N19" s="36"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="30"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="35" t="s">
+      <c r="N19" s="20"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="14"/>
+      <c r="AQ19" s="20"/>
+      <c r="AR19" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AS19" s="35"/>
-      <c r="AT19" s="35"/>
-      <c r="AU19" s="35"/>
-      <c r="AV19" s="35"/>
-      <c r="AW19" s="35" t="s">
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="19"/>
+      <c r="AU19" s="19"/>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="39"/>
-      <c r="AZ19" s="35" t="s">
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="BA19" s="39"/>
-      <c r="BB19" s="39"/>
-      <c r="BC19" s="30" t="s">
+      <c r="BA19" s="29"/>
+      <c r="BB19" s="29"/>
+      <c r="BC19" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N20" s="27"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="25"/>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="26"/>
-      <c r="BA20" s="26"/>
-      <c r="BB20" s="26"/>
-      <c r="BC20" s="25"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="11"/>
+      <c r="AQ20" s="13"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="11"/>
     </row>
     <row r="21" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N21" s="32"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="33"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="38" t="s">
+      <c r="N21" s="16"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="17"/>
+      <c r="AQ21" s="16"/>
+      <c r="AR21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AS21" s="31"/>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="31" t="s">
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+      <c r="AU21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AV21" s="31"/>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="31" t="s">
+      <c r="AV21" s="15"/>
+      <c r="AW21" s="15"/>
+      <c r="AX21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
-      <c r="BB21" s="31"/>
-      <c r="BC21" s="33"/>
+      <c r="AY21" s="15"/>
+      <c r="AZ21" s="15"/>
+      <c r="BA21" s="15"/>
+      <c r="BB21" s="15"/>
+      <c r="BC21" s="17"/>
     </row>
     <row r="22" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N22" s="32"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="33"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="35"/>
-      <c r="BC22" s="30"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="17"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="19"/>
+      <c r="AU22" s="19"/>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="14"/>
     </row>
     <row r="23" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N23" s="36"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="30"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
-      <c r="BA23" s="26"/>
-      <c r="BB23" s="26"/>
-      <c r="BC23" s="25"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="14"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="11"/>
     </row>
     <row r="24" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N24" s="27"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="25"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
-      <c r="AX24" s="31"/>
-      <c r="AY24" s="31"/>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="31"/>
-      <c r="BB24" s="31"/>
-      <c r="BC24" s="33"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="11"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="15"/>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="15"/>
+      <c r="AY24" s="15"/>
+      <c r="AZ24" s="15"/>
+      <c r="BA24" s="15"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="17"/>
     </row>
     <row r="25" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N25" s="32"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="33"/>
-      <c r="AQ25" s="36"/>
-      <c r="AR25" s="35"/>
-      <c r="AS25" s="35"/>
-      <c r="AT25" s="35"/>
-      <c r="AU25" s="35"/>
-      <c r="AV25" s="35"/>
-      <c r="AW25" s="35"/>
-      <c r="AX25" s="35"/>
-      <c r="AY25" s="35"/>
-      <c r="AZ25" s="35"/>
-      <c r="BA25" s="35"/>
-      <c r="BB25" s="35"/>
-      <c r="BC25" s="30"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="17"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="19"/>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="19"/>
+      <c r="AU25" s="19"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="14"/>
     </row>
     <row r="26" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N26" s="32"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="33"/>
-      <c r="AQ26" s="27"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="26"/>
-      <c r="BA26" s="26"/>
-      <c r="BB26" s="26"/>
-      <c r="BC26" s="25"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="17"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="11"/>
     </row>
     <row r="27" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N27" s="36"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="30"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="31"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-      <c r="AW27" s="31"/>
-      <c r="AX27" s="31"/>
-      <c r="AY27" s="31"/>
-      <c r="AZ27" s="31"/>
-      <c r="BA27" s="31"/>
-      <c r="BB27" s="31"/>
-      <c r="BC27" s="33"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="14"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="15"/>
+      <c r="AY27" s="15"/>
+      <c r="AZ27" s="15"/>
+      <c r="BA27" s="15"/>
+      <c r="BB27" s="15"/>
+      <c r="BC27" s="17"/>
     </row>
     <row r="28" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N28" s="32"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="33"/>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="35"/>
-      <c r="AS28" s="35"/>
-      <c r="AT28" s="35"/>
-      <c r="AU28" s="35"/>
-      <c r="AV28" s="35"/>
-      <c r="AW28" s="35"/>
-      <c r="AX28" s="35"/>
-      <c r="AY28" s="35"/>
-      <c r="AZ28" s="35"/>
-      <c r="BA28" s="35"/>
-      <c r="BB28" s="35"/>
-      <c r="BC28" s="30"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="17"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="19"/>
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="14"/>
     </row>
     <row r="29" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N29" s="32"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="33"/>
-      <c r="AQ29" s="27"/>
-      <c r="AR29" s="26"/>
-      <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="25"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="17"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="11"/>
     </row>
     <row r="30" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N30" s="32"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="33"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="31"/>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="31"/>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="31"/>
-      <c r="BC30" s="33"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="17"/>
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="15"/>
+      <c r="AS30" s="15"/>
+      <c r="AT30" s="15"/>
+      <c r="AU30" s="15"/>
+      <c r="AV30" s="15"/>
+      <c r="AW30" s="15"/>
+      <c r="AX30" s="15"/>
+      <c r="AY30" s="15"/>
+      <c r="AZ30" s="15"/>
+      <c r="BA30" s="15"/>
+      <c r="BB30" s="15"/>
+      <c r="BC30" s="17"/>
     </row>
     <row r="31" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N31" s="32"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="33"/>
-      <c r="AQ31" s="36"/>
-      <c r="AR31" s="35"/>
-      <c r="AS31" s="35"/>
-      <c r="AT31" s="35"/>
-      <c r="AU31" s="35"/>
-      <c r="AV31" s="35"/>
-      <c r="AW31" s="35"/>
-      <c r="AX31" s="35"/>
-      <c r="AY31" s="35"/>
-      <c r="AZ31" s="35"/>
-      <c r="BA31" s="35"/>
-      <c r="BB31" s="35"/>
-      <c r="BC31" s="30"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="17"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
+      <c r="BA31" s="19"/>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="14"/>
     </row>
     <row r="32" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N32" s="32"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="33"/>
-      <c r="AQ32" s="27"/>
-      <c r="AR32" s="26"/>
-      <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="26"/>
-      <c r="AV32" s="26"/>
-      <c r="AW32" s="26"/>
-      <c r="AX32" s="26"/>
-      <c r="AY32" s="26"/>
-      <c r="AZ32" s="26"/>
-      <c r="BA32" s="26"/>
-      <c r="BB32" s="26"/>
-      <c r="BC32" s="25"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="17"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="11"/>
     </row>
     <row r="33" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N33" s="32"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="33"/>
-      <c r="AQ33" s="32"/>
-      <c r="AR33" s="31"/>
-      <c r="AS33" s="31"/>
-      <c r="AT33" s="31"/>
-      <c r="AU33" s="31"/>
-      <c r="AV33" s="31"/>
-      <c r="AW33" s="31"/>
-      <c r="AX33" s="31"/>
-      <c r="AY33" s="31"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
-      <c r="BB33" s="31"/>
-      <c r="BC33" s="33"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="17"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="15"/>
+      <c r="AS33" s="15"/>
+      <c r="AT33" s="15"/>
+      <c r="AU33" s="15"/>
+      <c r="AV33" s="15"/>
+      <c r="AW33" s="15"/>
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="15"/>
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="15"/>
+      <c r="BB33" s="15"/>
+      <c r="BC33" s="17"/>
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N34" s="36"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="30"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="35"/>
-      <c r="AS34" s="35"/>
-      <c r="AT34" s="35"/>
-      <c r="AU34" s="35"/>
-      <c r="AV34" s="35"/>
-      <c r="AW34" s="35"/>
-      <c r="AX34" s="35"/>
-      <c r="AY34" s="35"/>
-      <c r="AZ34" s="35"/>
-      <c r="BA34" s="35"/>
-      <c r="BB34" s="35"/>
-      <c r="BC34" s="30"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="14"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="19"/>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="19"/>
+      <c r="AU34" s="19"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="19"/>
+      <c r="BB34" s="19"/>
+      <c r="BC34" s="14"/>
     </row>
     <row r="35" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ35" s="27"/>
-      <c r="AR35" s="26"/>
-      <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="26"/>
-      <c r="AV35" s="26"/>
-      <c r="AW35" s="26"/>
-      <c r="AX35" s="26"/>
-      <c r="AY35" s="26"/>
-      <c r="AZ35" s="26"/>
-      <c r="BA35" s="26"/>
-      <c r="BB35" s="26"/>
-      <c r="BC35" s="25"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="12"/>
+      <c r="AS35" s="12"/>
+      <c r="AT35" s="12"/>
+      <c r="AU35" s="12"/>
+      <c r="AV35" s="12"/>
+      <c r="AW35" s="12"/>
+      <c r="AX35" s="12"/>
+      <c r="AY35" s="12"/>
+      <c r="AZ35" s="12"/>
+      <c r="BA35" s="12"/>
+      <c r="BB35" s="12"/>
+      <c r="BC35" s="11"/>
     </row>
     <row r="36" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ36" s="32"/>
-      <c r="AR36" s="31"/>
-      <c r="AS36" s="31"/>
-      <c r="AT36" s="31"/>
-      <c r="AU36" s="31"/>
-      <c r="AV36" s="31"/>
-      <c r="AW36" s="31"/>
-      <c r="AX36" s="31"/>
-      <c r="AY36" s="31"/>
-      <c r="AZ36" s="31"/>
-      <c r="BA36" s="31"/>
-      <c r="BB36" s="31"/>
-      <c r="BC36" s="33"/>
+      <c r="AQ36" s="16"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="15"/>
+      <c r="AX36" s="15"/>
+      <c r="AY36" s="15"/>
+      <c r="AZ36" s="15"/>
+      <c r="BA36" s="15"/>
+      <c r="BB36" s="15"/>
+      <c r="BC36" s="17"/>
     </row>
     <row r="37" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
-      <c r="AU37" s="35"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="35"/>
-      <c r="AX37" s="35"/>
-      <c r="AY37" s="35"/>
-      <c r="AZ37" s="35"/>
-      <c r="BA37" s="35"/>
-      <c r="BB37" s="35"/>
-      <c r="BC37" s="30"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="19"/>
+      <c r="AS37" s="19"/>
+      <c r="AT37" s="19"/>
+      <c r="AU37" s="19"/>
+      <c r="AV37" s="19"/>
+      <c r="AW37" s="19"/>
+      <c r="AX37" s="19"/>
+      <c r="AY37" s="19"/>
+      <c r="AZ37" s="19"/>
+      <c r="BA37" s="19"/>
+      <c r="BB37" s="19"/>
+      <c r="BC37" s="14"/>
     </row>
     <row r="38" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ38" s="27"/>
-      <c r="AR38" s="26"/>
-      <c r="AS38" s="26"/>
-      <c r="AT38" s="26"/>
-      <c r="AU38" s="26"/>
-      <c r="AV38" s="26"/>
-      <c r="AW38" s="26"/>
-      <c r="AX38" s="26"/>
-      <c r="AY38" s="26"/>
-      <c r="AZ38" s="26"/>
-      <c r="BA38" s="26"/>
-      <c r="BB38" s="26"/>
-      <c r="BC38" s="25"/>
+      <c r="AQ38" s="13"/>
+      <c r="AR38" s="12"/>
+      <c r="AS38" s="12"/>
+      <c r="AT38" s="12"/>
+      <c r="AU38" s="12"/>
+      <c r="AV38" s="12"/>
+      <c r="AW38" s="12"/>
+      <c r="AX38" s="12"/>
+      <c r="AY38" s="12"/>
+      <c r="AZ38" s="12"/>
+      <c r="BA38" s="12"/>
+      <c r="BB38" s="12"/>
+      <c r="BC38" s="11"/>
     </row>
     <row r="39" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ39" s="32"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
-      <c r="AV39" s="31"/>
-      <c r="AW39" s="31"/>
-      <c r="AX39" s="31"/>
-      <c r="AY39" s="31"/>
-      <c r="AZ39" s="31"/>
-      <c r="BA39" s="31"/>
-      <c r="BB39" s="31"/>
-      <c r="BC39" s="33"/>
+      <c r="AQ39" s="16"/>
+      <c r="AR39" s="15"/>
+      <c r="AS39" s="15"/>
+      <c r="AT39" s="15"/>
+      <c r="AU39" s="15"/>
+      <c r="AV39" s="15"/>
+      <c r="AW39" s="15"/>
+      <c r="AX39" s="15"/>
+      <c r="AY39" s="15"/>
+      <c r="AZ39" s="15"/>
+      <c r="BA39" s="15"/>
+      <c r="BB39" s="15"/>
+      <c r="BC39" s="17"/>
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="35"/>
-      <c r="AS40" s="35"/>
-      <c r="AT40" s="35"/>
-      <c r="AU40" s="35"/>
-      <c r="AV40" s="35"/>
-      <c r="AW40" s="35"/>
-      <c r="AX40" s="35"/>
-      <c r="AY40" s="35"/>
-      <c r="AZ40" s="35"/>
-      <c r="BA40" s="35"/>
-      <c r="BB40" s="35"/>
-      <c r="BC40" s="30"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="19"/>
+      <c r="BA40" s="19"/>
+      <c r="BB40" s="19"/>
+      <c r="BC40" s="14"/>
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ41" s="34" t="s">
+      <c r="AQ41" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A45" s="41"/>
-      <c r="B45" s="40" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
-      <c r="AA45" s="40"/>
-      <c r="AB45" s="40"/>
-      <c r="AC45" s="40"/>
-      <c r="AD45" s="40"/>
-      <c r="AE45" s="40"/>
-      <c r="AF45" s="40"/>
-      <c r="AG45" s="40"/>
-      <c r="AH45" s="40"/>
-      <c r="AI45" s="40"/>
-      <c r="AJ45" s="40"/>
-      <c r="AK45" s="40"/>
-      <c r="AL45" s="40"/>
-      <c r="AM45" s="40"/>
-      <c r="AN45" s="40"/>
-      <c r="AO45" s="40"/>
-      <c r="AP45" s="40"/>
-      <c r="AQ45" s="40"/>
-      <c r="AR45" s="40"/>
-      <c r="AS45" s="40"/>
-      <c r="AT45" s="40"/>
-      <c r="AU45" s="40"/>
-      <c r="AV45" s="40"/>
-      <c r="AW45" s="40"/>
-      <c r="AX45" s="40"/>
-      <c r="AY45" s="40"/>
-      <c r="AZ45" s="40"/>
-      <c r="BA45" s="40"/>
-      <c r="BB45" s="40"/>
-      <c r="BC45" s="40"/>
-      <c r="BD45" s="40"/>
-      <c r="BE45" s="40"/>
-      <c r="BF45" s="40"/>
-      <c r="BG45" s="40"/>
-      <c r="BH45" s="40"/>
-      <c r="BI45" s="40"/>
-      <c r="BJ45" s="40"/>
-      <c r="BK45" s="40"/>
-      <c r="BL45" s="40"/>
-      <c r="BM45" s="40"/>
-      <c r="BN45" s="40"/>
-      <c r="BO45" s="40"/>
-      <c r="BP45" s="40"/>
-      <c r="BQ45" s="40"/>
-      <c r="BR45" s="40"/>
-      <c r="BS45" s="40"/>
-      <c r="BT45" s="40"/>
-      <c r="BU45" s="40"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+      <c r="AD45" s="22"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="22"/>
+      <c r="AI45" s="22"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+      <c r="AN45" s="22"/>
+      <c r="AO45" s="22"/>
+      <c r="AP45" s="22"/>
+      <c r="AQ45" s="22"/>
+      <c r="AR45" s="22"/>
+      <c r="AS45" s="22"/>
+      <c r="AT45" s="22"/>
+      <c r="AU45" s="22"/>
+      <c r="AV45" s="22"/>
+      <c r="AW45" s="22"/>
+      <c r="AX45" s="22"/>
+      <c r="AY45" s="22"/>
+      <c r="AZ45" s="22"/>
+      <c r="BA45" s="22"/>
+      <c r="BB45" s="22"/>
+      <c r="BC45" s="22"/>
+      <c r="BD45" s="22"/>
+      <c r="BE45" s="22"/>
+      <c r="BF45" s="22"/>
+      <c r="BG45" s="22"/>
+      <c r="BH45" s="22"/>
+      <c r="BI45" s="22"/>
+      <c r="BJ45" s="22"/>
+      <c r="BK45" s="22"/>
+      <c r="BL45" s="22"/>
+      <c r="BM45" s="22"/>
+      <c r="BN45" s="22"/>
+      <c r="BO45" s="22"/>
+      <c r="BP45" s="22"/>
+      <c r="BQ45" s="22"/>
+      <c r="BR45" s="22"/>
+      <c r="BS45" s="22"/>
+      <c r="BT45" s="22"/>
+      <c r="BU45" s="22"/>
     </row>
     <row r="47" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="U47" s="22" t="s">
+      <c r="U47" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="AK47" s="22" t="s">
+      <c r="AK47" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="U48" s="22" t="s">
+      <c r="U48" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="AK48" s="22" t="s">
+      <c r="AK48" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="49" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="26" t="s">
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26" t="s">
+      <c r="O49" s="12"/>
+      <c r="P49" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="Q49" s="25"/>
-      <c r="U49" s="27" t="s">
+      <c r="Q49" s="11"/>
+      <c r="U49" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
-      <c r="X49" s="26"/>
-      <c r="Y49" s="26"/>
-      <c r="Z49" s="26"/>
-      <c r="AA49" s="26"/>
-      <c r="AB49" s="26"/>
-      <c r="AC49" s="25"/>
-      <c r="AK49" s="27" t="s">
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="11"/>
+      <c r="AK49" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AL49" s="26"/>
-      <c r="AM49" s="26"/>
-      <c r="AN49" s="26"/>
-      <c r="AO49" s="26"/>
-      <c r="AP49" s="26"/>
-      <c r="AQ49" s="26"/>
-      <c r="AR49" s="26"/>
-      <c r="AS49" s="25"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="11"/>
     </row>
     <row r="50" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="30"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="33"/>
-      <c r="AK50" s="32" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="14"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="17"/>
+      <c r="AK50" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="AL50" s="31" t="s">
+      <c r="AL50" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AM50" s="31"/>
-      <c r="AN50" s="31"/>
-      <c r="AO50" s="31"/>
-      <c r="AP50" s="31"/>
-      <c r="AQ50" s="31"/>
-      <c r="AR50" s="31"/>
-      <c r="AS50" s="33"/>
+      <c r="AM50" s="15"/>
+      <c r="AN50" s="15"/>
+      <c r="AO50" s="15"/>
+      <c r="AP50" s="15"/>
+      <c r="AQ50" s="15"/>
+      <c r="AR50" s="15"/>
+      <c r="AS50" s="17"/>
     </row>
     <row r="51" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="30"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
-      <c r="X51" s="26"/>
-      <c r="Y51" s="26"/>
-      <c r="Z51" s="26"/>
-      <c r="AA51" s="26"/>
-      <c r="AB51" s="26"/>
-      <c r="AC51" s="25"/>
-      <c r="AK51" s="32" t="s">
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="14"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="11"/>
+      <c r="AK51" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AL51" s="31" t="s">
+      <c r="AL51" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AM51" s="31"/>
-      <c r="AN51" s="31"/>
-      <c r="AO51" s="31"/>
-      <c r="AP51" s="31"/>
-      <c r="AQ51" s="31"/>
-      <c r="AR51" s="31"/>
-      <c r="AS51" s="33"/>
+      <c r="AM51" s="15"/>
+      <c r="AN51" s="15"/>
+      <c r="AO51" s="15"/>
+      <c r="AP51" s="15"/>
+      <c r="AQ51" s="15"/>
+      <c r="AR51" s="15"/>
+      <c r="AS51" s="17"/>
     </row>
     <row r="52" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="25"/>
-      <c r="U52" s="36"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="30"/>
-      <c r="AK52" s="32" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="11"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="14"/>
+      <c r="AK52" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AL52" s="31" t="s">
+      <c r="AL52" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AM52" s="31"/>
-      <c r="AN52" s="31"/>
-      <c r="AO52" s="31"/>
-      <c r="AP52" s="31"/>
-      <c r="AQ52" s="31"/>
-      <c r="AR52" s="31"/>
-      <c r="AS52" s="33"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="15"/>
+      <c r="AO52" s="15"/>
+      <c r="AP52" s="15"/>
+      <c r="AQ52" s="15"/>
+      <c r="AR52" s="15"/>
+      <c r="AS52" s="17"/>
     </row>
     <row r="53" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D53" s="32" t="s">
+      <c r="D53" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="33"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31"/>
-      <c r="AC53" s="33"/>
-      <c r="AK53" s="32" t="s">
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="17"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="17"/>
+      <c r="AK53" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AL53" s="31" t="s">
+      <c r="AL53" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AM53" s="31"/>
-      <c r="AN53" s="31"/>
-      <c r="AO53" s="31"/>
-      <c r="AP53" s="31"/>
-      <c r="AQ53" s="31"/>
-      <c r="AR53" s="31"/>
-      <c r="AS53" s="33"/>
+      <c r="AM53" s="15"/>
+      <c r="AN53" s="15"/>
+      <c r="AO53" s="15"/>
+      <c r="AP53" s="15"/>
+      <c r="AQ53" s="15"/>
+      <c r="AR53" s="15"/>
+      <c r="AS53" s="17"/>
     </row>
     <row r="54" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="33"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35" t="s">
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="17"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="19"/>
+      <c r="Z54" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35" t="s">
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AC54" s="30"/>
-      <c r="AK54" s="36"/>
-      <c r="AL54" s="35"/>
-      <c r="AM54" s="35"/>
-      <c r="AN54" s="35"/>
-      <c r="AO54" s="35"/>
-      <c r="AP54" s="35" t="s">
+      <c r="AC54" s="14"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="19"/>
+      <c r="AM54" s="19"/>
+      <c r="AN54" s="19"/>
+      <c r="AO54" s="19"/>
+      <c r="AP54" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AQ54" s="35"/>
-      <c r="AR54" s="35" t="s">
+      <c r="AQ54" s="19"/>
+      <c r="AR54" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AS54" s="30"/>
+      <c r="AS54" s="14"/>
     </row>
     <row r="55" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D55" s="36"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="30"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="14"/>
     </row>
     <row r="56" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D56" s="27"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="25"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="11"/>
     </row>
     <row r="57" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D57" s="32"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="33"/>
-      <c r="AK57" s="22" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="17"/>
+      <c r="AK57" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="58" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="32"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="33"/>
-      <c r="AK58" s="27" t="s">
+      <c r="D58" s="16"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="17"/>
+      <c r="AK58" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AL58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AN58" s="26"/>
-      <c r="AO58" s="26"/>
-      <c r="AP58" s="26"/>
-      <c r="AQ58" s="26"/>
-      <c r="AR58" s="26"/>
-      <c r="AS58" s="25"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="11"/>
     </row>
     <row r="59" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="36"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="30"/>
-      <c r="AK59" s="32" t="s">
+      <c r="D59" s="20"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="14"/>
+      <c r="AK59" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="AL59" s="31" t="s">
+      <c r="AL59" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AM59" s="31"/>
-      <c r="AN59" s="31"/>
-      <c r="AO59" s="31"/>
-      <c r="AP59" s="31"/>
-      <c r="AQ59" s="31"/>
-      <c r="AR59" s="31"/>
-      <c r="AS59" s="33"/>
+      <c r="AM59" s="15"/>
+      <c r="AN59" s="15"/>
+      <c r="AO59" s="15"/>
+      <c r="AP59" s="15"/>
+      <c r="AQ59" s="15"/>
+      <c r="AR59" s="15"/>
+      <c r="AS59" s="17"/>
     </row>
     <row r="60" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D60" s="27"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="25"/>
-      <c r="AK60" s="32" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="11"/>
+      <c r="AK60" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AL60" s="31" t="s">
+      <c r="AL60" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AM60" s="31"/>
-      <c r="AN60" s="31"/>
-      <c r="AO60" s="31"/>
-      <c r="AP60" s="31"/>
-      <c r="AQ60" s="31"/>
-      <c r="AR60" s="31"/>
-      <c r="AS60" s="33"/>
+      <c r="AM60" s="15"/>
+      <c r="AN60" s="15"/>
+      <c r="AO60" s="15"/>
+      <c r="AP60" s="15"/>
+      <c r="AQ60" s="15"/>
+      <c r="AR60" s="15"/>
+      <c r="AS60" s="17"/>
     </row>
     <row r="61" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D61" s="32"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="33"/>
-      <c r="AK61" s="32" t="s">
+      <c r="D61" s="16"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="17"/>
+      <c r="AK61" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AL61" s="31" t="s">
+      <c r="AL61" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="AM61" s="31"/>
-      <c r="AN61" s="31"/>
-      <c r="AO61" s="31"/>
-      <c r="AP61" s="31"/>
-      <c r="AQ61" s="31"/>
-      <c r="AR61" s="31"/>
-      <c r="AS61" s="33"/>
+      <c r="AM61" s="15"/>
+      <c r="AN61" s="15"/>
+      <c r="AO61" s="15"/>
+      <c r="AP61" s="15"/>
+      <c r="AQ61" s="15"/>
+      <c r="AR61" s="15"/>
+      <c r="AS61" s="17"/>
     </row>
     <row r="62" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D62" s="32"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="33"/>
-      <c r="AK62" s="32" t="s">
+      <c r="D62" s="16"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="17"/>
+      <c r="AK62" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AL62" s="31" t="s">
+      <c r="AL62" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="AM62" s="31"/>
-      <c r="AN62" s="31"/>
-      <c r="AO62" s="31"/>
-      <c r="AP62" s="31"/>
-      <c r="AQ62" s="31"/>
-      <c r="AR62" s="31"/>
-      <c r="AS62" s="33"/>
+      <c r="AM62" s="15"/>
+      <c r="AN62" s="15"/>
+      <c r="AO62" s="15"/>
+      <c r="AP62" s="15"/>
+      <c r="AQ62" s="15"/>
+      <c r="AR62" s="15"/>
+      <c r="AS62" s="17"/>
     </row>
     <row r="63" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D63" s="36"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="30"/>
-      <c r="AK63" s="36"/>
-      <c r="AL63" s="35"/>
-      <c r="AM63" s="35"/>
-      <c r="AN63" s="35"/>
-      <c r="AO63" s="35"/>
-      <c r="AP63" s="35" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="14"/>
+      <c r="AK63" s="20"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="19"/>
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AQ63" s="35"/>
-      <c r="AR63" s="35" t="s">
+      <c r="AQ63" s="19"/>
+      <c r="AR63" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AS63" s="30"/>
-      <c r="BA63" s="22" t="s">
+      <c r="AS63" s="14"/>
+      <c r="BA63" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="64" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D64" s="27"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="26"/>
-      <c r="Q64" s="25"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="11"/>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D65" s="32"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="33"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="17"/>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D66" s="32"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="33"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="17"/>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D67" s="36"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="30"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="14"/>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D68" s="27"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="26"/>
-      <c r="Q68" s="25"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="11"/>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D69" s="32"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="33"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="17"/>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D70" s="32"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="33"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="17"/>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D71" s="36"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="30"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="14"/>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D72" s="32"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="33"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="17"/>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D73" s="32"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="31"/>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="33"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="17"/>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D74" s="32"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="31"/>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31"/>
-      <c r="Q74" s="33"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="17"/>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D75" s="32"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="31"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="33"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="17"/>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D76" s="32"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="31"/>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="33"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="17"/>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D77" s="32"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="33"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="17"/>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D78" s="36"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="30"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D49:M50"/>
-    <mergeCell ref="AX18:AX19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="BB18:BB19"/>
     <mergeCell ref="N5:W6"/>
     <mergeCell ref="AR11:BB11"/>
     <mergeCell ref="AR12:BB13"/>
     <mergeCell ref="AR14:BB14"/>
     <mergeCell ref="AR15:BB15"/>
     <mergeCell ref="AQ8:AZ9"/>
+    <mergeCell ref="D49:M50"/>
+    <mergeCell ref="AX18:AX19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="BB18:BB19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5111,10 +5127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F30"/>
+  <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5348,13 +5364,21 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+      <c r="C29" s="42" t="s">
         <v>140</v>
       </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/設計書/TrainTimer設計.xlsx
+++ b/設計書/TrainTimer設計.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13965" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="3"/>
+    <workbookView xWindow="15825" yWindow="0" windowWidth="18135" windowHeight="8595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面概要" sheetId="1" r:id="rId1"/>
     <sheet name="クラス分割" sheetId="3" r:id="rId2"/>
     <sheet name="データ構造" sheetId="2" r:id="rId3"/>
-    <sheet name="作業タスク一覧" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>路線名</t>
     <rPh sb="0" eb="2">
@@ -585,171 +584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスクリスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線一覧画面作成</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線一覧操作メニュー作成</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線一覧追加</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線一覧検索</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線一覧解析</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線一覧登録</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線一覧並び替え</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODO*DBに並び順を追加？</t>
-    <rPh sb="8" eb="9">
-      <t>ナラ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線情報画面作成</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線情報表示</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次の電車までの時間表示</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>デンシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時刻一覧表示</t>
-    <rPh sb="0" eb="2">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在時刻より前のものはグレーアウト</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダークテーマ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>リスト表示</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
@@ -757,62 +591,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>路線一覧データ削除</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線一覧データ取得</t>
-    <rPh sb="0" eb="4">
-      <t>ロセンイチラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リスト選択時のカウントダウン</t>
-    <rPh sb="3" eb="6">
-      <t>センタクジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>平日，土日祝日切り替え</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイジツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ドニチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュクジツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設定画面作成</t>
-    <rPh sb="0" eb="4">
-      <t>セッテイガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RouteSearch</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -849,38 +627,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示フィルタ</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリ情報</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バックアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不具合関連</t>
-    <rPh sb="0" eb="3">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -1081,86 +827,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再取得</t>
-    <rPh sb="0" eb="3">
-      <t>サイシュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>路線詳細全検索並列化</t>
-    <rPh sb="0" eb="2">
-      <t>ロセン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘイレツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DBへの変更はViewModelを経由させる．Fragmentでは直接操作しない</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケイユ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細画面表示の画面回転対応</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解析件数表示？</t>
-    <rPh sb="0" eb="2">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンスウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1211,7 +877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1233,12 +899,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,12 +1045,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1428,10 +1082,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,9 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2792,88 +2443,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.125" style="10"/>
+    <col min="1" max="16384" width="3.125" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="22"/>
-      <c r="AU2" s="22"/>
-      <c r="AV2" s="22"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
-      <c r="BE2" s="22"/>
-      <c r="BF2" s="22"/>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="22"/>
-      <c r="BI2" s="22"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="22"/>
-      <c r="BL2" s="22"/>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="20"/>
+      <c r="AW2" s="20"/>
+      <c r="AX2" s="20"/>
+      <c r="AY2" s="20"/>
+      <c r="AZ2" s="20"/>
+      <c r="BA2" s="20"/>
+      <c r="BB2" s="20"/>
+      <c r="BC2" s="20"/>
+      <c r="BD2" s="20"/>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20"/>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20"/>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="20"/>
+      <c r="BN2" s="20"/>
+      <c r="BO2" s="20"/>
+      <c r="BP2" s="20"/>
+      <c r="BQ2" s="20"/>
+      <c r="BR2" s="20"/>
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="20"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AP4"/>
@@ -2883,26 +2534,26 @@
       <c r="AT4"/>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA5" s="11"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA5" s="9"/>
       <c r="AP5"/>
       <c r="AQ5"/>
       <c r="AR5"/>
@@ -2910,21 +2561,21 @@
       <c r="AT5"/>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="17"/>
-      <c r="AJ6" s="10" t="s">
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="15"/>
+      <c r="AJ6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="AP6"/>
@@ -2934,24 +2585,24 @@
       <c r="AT6"/>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N7" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="14"/>
+      <c r="N7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="12"/>
       <c r="AP7"/>
-      <c r="AQ7" s="10" t="s">
+      <c r="AQ7" s="8" t="s">
         <v>47</v>
       </c>
       <c r="AR7"/>
@@ -2959,1767 +2610,1767 @@
       <c r="AT7"/>
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="11"/>
-      <c r="AQ8" s="24" t="s">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="9"/>
+      <c r="AQ8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25"/>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25"/>
-      <c r="AZ8" s="25"/>
-      <c r="BA8" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="11"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AT8" s="23"/>
+      <c r="AU8" s="23"/>
+      <c r="AV8" s="23"/>
+      <c r="AW8" s="23"/>
+      <c r="AX8" s="23"/>
+      <c r="AY8" s="23"/>
+      <c r="AZ8" s="23"/>
+      <c r="BA8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="9"/>
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="17"/>
-      <c r="AD9" s="10" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="15"/>
+      <c r="AD9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AQ9" s="26"/>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27"/>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27"/>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27"/>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27"/>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="17"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="13"/>
+      <c r="BC9" s="15"/>
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="17"/>
-      <c r="AD10" s="10" t="s">
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="15"/>
+      <c r="AD10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
-      <c r="AV10" s="12"/>
-      <c r="AW10" s="12"/>
-      <c r="AX10" s="12"/>
-      <c r="AY10" s="12"/>
-      <c r="AZ10" s="12"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
-      <c r="BC10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="9"/>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N11" s="20"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="14"/>
-      <c r="AH11" s="13" t="s">
+      <c r="N11" s="18"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="12"/>
+      <c r="AH11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="11"/>
-      <c r="AQ11" s="16"/>
-      <c r="AR11" s="30" t="s">
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="9"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="31"/>
-      <c r="AV11" s="31"/>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="31"/>
-      <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
-      <c r="BB11" s="32"/>
-      <c r="BC11" s="17"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="29"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="29"/>
+      <c r="BA11" s="29"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="15"/>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N12" s="13"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="11"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="17"/>
-      <c r="AQ12" s="16"/>
-      <c r="AR12" s="33" t="s">
+      <c r="N12" s="11"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="9"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="15"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
-      <c r="BB12" s="35"/>
-      <c r="BC12" s="17"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="15"/>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N13" s="16"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="17"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="15"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="AL13" s="19" t="s">
+      <c r="AL13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AM13" s="14"/>
-      <c r="AQ13" s="16"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="34"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="34"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="34"/>
-      <c r="BB13" s="35"/>
-      <c r="BC13" s="17"/>
+      <c r="AM13" s="12"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="15"/>
     </row>
     <row r="14" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N14" s="16"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="17"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="36" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="15"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AS14" s="37"/>
-      <c r="AT14" s="37"/>
-      <c r="AU14" s="37"/>
-      <c r="AV14" s="37"/>
-      <c r="AW14" s="37"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="37"/>
-      <c r="AZ14" s="37"/>
-      <c r="BA14" s="37"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="10" t="s">
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N15" s="20"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="14"/>
-      <c r="AQ15" s="16"/>
-      <c r="AR15" s="39" t="s">
+      <c r="N15" s="18"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="12"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AS15" s="40"/>
-      <c r="AT15" s="40"/>
-      <c r="AU15" s="40"/>
-      <c r="AV15" s="40"/>
-      <c r="AW15" s="40"/>
-      <c r="AX15" s="40"/>
-      <c r="AY15" s="40"/>
-      <c r="AZ15" s="40"/>
-      <c r="BA15" s="40"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="17"/>
-      <c r="BH15" s="10" t="s">
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="15"/>
+      <c r="BH15" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N16" s="13"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="11"/>
-      <c r="AQ16" s="16"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="15"/>
-      <c r="AZ16" s="15"/>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="17"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="9"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13"/>
+      <c r="AZ16" s="13"/>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="15"/>
     </row>
     <row r="17" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N17" s="16"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="17"/>
-      <c r="AQ17" s="16"/>
-      <c r="AR17" s="21" t="s">
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="15"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="15"/>
-      <c r="AW17" s="15"/>
-      <c r="AX17" s="15"/>
-      <c r="AY17" s="15"/>
-      <c r="AZ17" s="15"/>
-      <c r="BA17" s="15"/>
-      <c r="BB17" s="15"/>
-      <c r="BC17" s="17"/>
+      <c r="AS17" s="13"/>
+      <c r="AT17" s="13"/>
+      <c r="AU17" s="13"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="13"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="13"/>
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="13"/>
+      <c r="BB17" s="13"/>
+      <c r="BC17" s="15"/>
     </row>
     <row r="18" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N18" s="16"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="17"/>
-      <c r="AQ18" s="16"/>
-      <c r="AR18" s="15" t="s">
+      <c r="N18" s="14"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="15"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="15"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="28">
+      <c r="AS18" s="13"/>
+      <c r="AT18" s="13"/>
+      <c r="AU18" s="13"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="13"/>
+      <c r="AX18" s="26">
         <v>0</v>
       </c>
-      <c r="AY18" s="28">
+      <c r="AY18" s="26">
         <v>0</v>
       </c>
-      <c r="AZ18" s="15"/>
-      <c r="BA18" s="28">
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="26">
         <v>0</v>
       </c>
-      <c r="BB18" s="28">
+      <c r="BB18" s="26">
         <v>0</v>
       </c>
-      <c r="BC18" s="17"/>
+      <c r="BC18" s="15"/>
     </row>
     <row r="19" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N19" s="20"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="19"/>
-      <c r="AA19" s="14"/>
-      <c r="AQ19" s="20"/>
-      <c r="AR19" s="19" t="s">
+      <c r="N19" s="18"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="12"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="19"/>
-      <c r="AU19" s="19"/>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="19" t="s">
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="19" t="s">
+      <c r="AX19" s="27"/>
+      <c r="AY19" s="27"/>
+      <c r="AZ19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="BA19" s="29"/>
-      <c r="BB19" s="29"/>
-      <c r="BC19" s="14" t="s">
+      <c r="BA19" s="27"/>
+      <c r="BB19" s="27"/>
+      <c r="BC19" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N20" s="13"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="11"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="12"/>
-      <c r="BA20" s="12"/>
-      <c r="BB20" s="12"/>
-      <c r="BC20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="9"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="9"/>
     </row>
     <row r="21" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N21" s="16"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="17"/>
-      <c r="AQ21" s="16"/>
-      <c r="AR21" s="21" t="s">
+      <c r="N21" s="14"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="15"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15" t="s">
+      <c r="AS21" s="13"/>
+      <c r="AT21" s="13"/>
+      <c r="AU21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AV21" s="15"/>
-      <c r="AW21" s="15"/>
-      <c r="AX21" s="15" t="s">
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="13"/>
+      <c r="AX21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AY21" s="15"/>
-      <c r="AZ21" s="15"/>
-      <c r="BA21" s="15"/>
-      <c r="BB21" s="15"/>
-      <c r="BC21" s="17"/>
+      <c r="AY21" s="13"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="13"/>
+      <c r="BB21" s="13"/>
+      <c r="BC21" s="15"/>
     </row>
     <row r="22" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N22" s="16"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="17"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="19"/>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="15"/>
+      <c r="AQ22" s="18"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="12"/>
     </row>
     <row r="23" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N23" s="20"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="14"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
-      <c r="BB23" s="12"/>
-      <c r="BC23" s="11"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="12"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="9"/>
     </row>
     <row r="24" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N24" s="13"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="11"/>
-      <c r="AQ24" s="16"/>
-      <c r="AR24" s="15"/>
-      <c r="AS24" s="15"/>
-      <c r="AT24" s="15"/>
-      <c r="AU24" s="15"/>
-      <c r="AV24" s="15"/>
-      <c r="AW24" s="15"/>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="15"/>
-      <c r="AZ24" s="15"/>
-      <c r="BA24" s="15"/>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="17"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="9"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="15"/>
     </row>
     <row r="25" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N25" s="16"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="17"/>
-      <c r="AQ25" s="20"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="19"/>
-      <c r="AU25" s="19"/>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="15"/>
+      <c r="AQ25" s="18"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="17"/>
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="17"/>
+      <c r="BB25" s="17"/>
+      <c r="BC25" s="12"/>
     </row>
     <row r="26" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N26" s="16"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="17"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
-      <c r="BA26" s="12"/>
-      <c r="BB26" s="12"/>
-      <c r="BC26" s="11"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="15"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="9"/>
     </row>
     <row r="27" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N27" s="20"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="14"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="15"/>
-      <c r="AS27" s="15"/>
-      <c r="AT27" s="15"/>
-      <c r="AU27" s="15"/>
-      <c r="AV27" s="15"/>
-      <c r="AW27" s="15"/>
-      <c r="AX27" s="15"/>
-      <c r="AY27" s="15"/>
-      <c r="AZ27" s="15"/>
-      <c r="BA27" s="15"/>
-      <c r="BB27" s="15"/>
-      <c r="BC27" s="17"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="12"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="15"/>
     </row>
     <row r="28" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N28" s="16"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="17"/>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="19"/>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="15"/>
+      <c r="AQ28" s="18"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
+      <c r="AT28" s="17"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="17"/>
+      <c r="AY28" s="17"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="17"/>
+      <c r="BC28" s="12"/>
     </row>
     <row r="29" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N29" s="16"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="17"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="12"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="11"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="15"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="10"/>
+      <c r="BA29" s="10"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="9"/>
     </row>
     <row r="30" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N30" s="16"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="17"/>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="15"/>
-      <c r="AS30" s="15"/>
-      <c r="AT30" s="15"/>
-      <c r="AU30" s="15"/>
-      <c r="AV30" s="15"/>
-      <c r="AW30" s="15"/>
-      <c r="AX30" s="15"/>
-      <c r="AY30" s="15"/>
-      <c r="AZ30" s="15"/>
-      <c r="BA30" s="15"/>
-      <c r="BB30" s="15"/>
-      <c r="BC30" s="17"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="15"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="15"/>
     </row>
     <row r="31" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N31" s="16"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="17"/>
-      <c r="AQ31" s="20"/>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="19"/>
-      <c r="AU31" s="19"/>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-      <c r="BA31" s="19"/>
-      <c r="BB31" s="19"/>
-      <c r="BC31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="15"/>
+      <c r="AQ31" s="18"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
+      <c r="AT31" s="17"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="17"/>
+      <c r="AW31" s="17"/>
+      <c r="AX31" s="17"/>
+      <c r="AY31" s="17"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="17"/>
+      <c r="BB31" s="17"/>
+      <c r="BC31" s="12"/>
     </row>
     <row r="32" spans="14:55" x14ac:dyDescent="0.15">
-      <c r="N32" s="16"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="17"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="12"/>
-      <c r="AS32" s="12"/>
-      <c r="AT32" s="12"/>
-      <c r="AU32" s="12"/>
-      <c r="AV32" s="12"/>
-      <c r="AW32" s="12"/>
-      <c r="AX32" s="12"/>
-      <c r="AY32" s="12"/>
-      <c r="AZ32" s="12"/>
-      <c r="BA32" s="12"/>
-      <c r="BB32" s="12"/>
-      <c r="BC32" s="11"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="15"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="9"/>
     </row>
     <row r="33" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N33" s="16"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="17"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="15"/>
-      <c r="AS33" s="15"/>
-      <c r="AT33" s="15"/>
-      <c r="AU33" s="15"/>
-      <c r="AV33" s="15"/>
-      <c r="AW33" s="15"/>
-      <c r="AX33" s="15"/>
-      <c r="AY33" s="15"/>
-      <c r="AZ33" s="15"/>
-      <c r="BA33" s="15"/>
-      <c r="BB33" s="15"/>
-      <c r="BC33" s="17"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="15"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="13"/>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="15"/>
     </row>
     <row r="34" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="N34" s="20"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="14"/>
-      <c r="AQ34" s="20"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="19"/>
-      <c r="AU34" s="19"/>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="19"/>
-      <c r="BB34" s="19"/>
-      <c r="BC34" s="14"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="12"/>
+      <c r="AQ34" s="18"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AT34" s="17"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="17"/>
+      <c r="AY34" s="17"/>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="17"/>
+      <c r="BC34" s="12"/>
     </row>
     <row r="35" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="12"/>
-      <c r="AS35" s="12"/>
-      <c r="AT35" s="12"/>
-      <c r="AU35" s="12"/>
-      <c r="AV35" s="12"/>
-      <c r="AW35" s="12"/>
-      <c r="AX35" s="12"/>
-      <c r="AY35" s="12"/>
-      <c r="AZ35" s="12"/>
-      <c r="BA35" s="12"/>
-      <c r="BB35" s="12"/>
-      <c r="BC35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="10"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="10"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="9"/>
     </row>
     <row r="36" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ36" s="16"/>
-      <c r="AR36" s="15"/>
-      <c r="AS36" s="15"/>
-      <c r="AT36" s="15"/>
-      <c r="AU36" s="15"/>
-      <c r="AV36" s="15"/>
-      <c r="AW36" s="15"/>
-      <c r="AX36" s="15"/>
-      <c r="AY36" s="15"/>
-      <c r="AZ36" s="15"/>
-      <c r="BA36" s="15"/>
-      <c r="BB36" s="15"/>
-      <c r="BC36" s="17"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="13"/>
+      <c r="AS36" s="13"/>
+      <c r="AT36" s="13"/>
+      <c r="AU36" s="13"/>
+      <c r="AV36" s="13"/>
+      <c r="AW36" s="13"/>
+      <c r="AX36" s="13"/>
+      <c r="AY36" s="13"/>
+      <c r="AZ36" s="13"/>
+      <c r="BA36" s="13"/>
+      <c r="BB36" s="13"/>
+      <c r="BC36" s="15"/>
     </row>
     <row r="37" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ37" s="20"/>
-      <c r="AR37" s="19"/>
-      <c r="AS37" s="19"/>
-      <c r="AT37" s="19"/>
-      <c r="AU37" s="19"/>
-      <c r="AV37" s="19"/>
-      <c r="AW37" s="19"/>
-      <c r="AX37" s="19"/>
-      <c r="AY37" s="19"/>
-      <c r="AZ37" s="19"/>
-      <c r="BA37" s="19"/>
-      <c r="BB37" s="19"/>
-      <c r="BC37" s="14"/>
+      <c r="AQ37" s="18"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="12"/>
     </row>
     <row r="38" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="12"/>
-      <c r="AS38" s="12"/>
-      <c r="AT38" s="12"/>
-      <c r="AU38" s="12"/>
-      <c r="AV38" s="12"/>
-      <c r="AW38" s="12"/>
-      <c r="AX38" s="12"/>
-      <c r="AY38" s="12"/>
-      <c r="AZ38" s="12"/>
-      <c r="BA38" s="12"/>
-      <c r="BB38" s="12"/>
-      <c r="BC38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="10"/>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="10"/>
+      <c r="AZ38" s="10"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="9"/>
     </row>
     <row r="39" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ39" s="16"/>
-      <c r="AR39" s="15"/>
-      <c r="AS39" s="15"/>
-      <c r="AT39" s="15"/>
-      <c r="AU39" s="15"/>
-      <c r="AV39" s="15"/>
-      <c r="AW39" s="15"/>
-      <c r="AX39" s="15"/>
-      <c r="AY39" s="15"/>
-      <c r="AZ39" s="15"/>
-      <c r="BA39" s="15"/>
-      <c r="BB39" s="15"/>
-      <c r="BC39" s="17"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="13"/>
+      <c r="AS39" s="13"/>
+      <c r="AT39" s="13"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="13"/>
+      <c r="AW39" s="13"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="13"/>
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="13"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="15"/>
     </row>
     <row r="40" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ40" s="20"/>
-      <c r="AR40" s="19"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
-      <c r="AV40" s="19"/>
-      <c r="AW40" s="19"/>
-      <c r="AX40" s="19"/>
-      <c r="AY40" s="19"/>
-      <c r="AZ40" s="19"/>
-      <c r="BA40" s="19"/>
-      <c r="BB40" s="19"/>
-      <c r="BC40" s="14"/>
+      <c r="AQ40" s="18"/>
+      <c r="AR40" s="17"/>
+      <c r="AS40" s="17"/>
+      <c r="AT40" s="17"/>
+      <c r="AU40" s="17"/>
+      <c r="AV40" s="17"/>
+      <c r="AW40" s="17"/>
+      <c r="AX40" s="17"/>
+      <c r="AY40" s="17"/>
+      <c r="AZ40" s="17"/>
+      <c r="BA40" s="17"/>
+      <c r="BB40" s="17"/>
+      <c r="BC40" s="12"/>
     </row>
     <row r="41" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="AQ41" s="18" t="s">
+      <c r="AQ41" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="A45" s="21"/>
+      <c r="B45" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="20"/>
+      <c r="AS45" s="20"/>
+      <c r="AT45" s="20"/>
+      <c r="AU45" s="20"/>
+      <c r="AV45" s="20"/>
+      <c r="AW45" s="20"/>
+      <c r="AX45" s="20"/>
+      <c r="AY45" s="20"/>
+      <c r="AZ45" s="20"/>
+      <c r="BA45" s="20"/>
+      <c r="BB45" s="20"/>
+      <c r="BC45" s="20"/>
+      <c r="BD45" s="20"/>
+      <c r="BE45" s="20"/>
+      <c r="BF45" s="20"/>
+      <c r="BG45" s="20"/>
+      <c r="BH45" s="20"/>
+      <c r="BI45" s="20"/>
+      <c r="BJ45" s="20"/>
+      <c r="BK45" s="20"/>
+      <c r="BL45" s="20"/>
+      <c r="BM45" s="20"/>
+      <c r="BN45" s="20"/>
+      <c r="BO45" s="20"/>
+      <c r="BP45" s="20"/>
+      <c r="BQ45" s="20"/>
+      <c r="BR45" s="20"/>
+      <c r="BS45" s="20"/>
+      <c r="BT45" s="20"/>
+      <c r="BU45" s="20"/>
+    </row>
+    <row r="47" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="U47" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK47" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:73" x14ac:dyDescent="0.15">
+      <c r="U48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK48" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="4:53" x14ac:dyDescent="0.15">
+      <c r="D49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q49" s="9"/>
+      <c r="U49" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="9"/>
+      <c r="AK49" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="A45" s="23"/>
-      <c r="B45" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="22"/>
-      <c r="AL45" s="22"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="22"/>
-      <c r="AO45" s="22"/>
-      <c r="AP45" s="22"/>
-      <c r="AQ45" s="22"/>
-      <c r="AR45" s="22"/>
-      <c r="AS45" s="22"/>
-      <c r="AT45" s="22"/>
-      <c r="AU45" s="22"/>
-      <c r="AV45" s="22"/>
-      <c r="AW45" s="22"/>
-      <c r="AX45" s="22"/>
-      <c r="AY45" s="22"/>
-      <c r="AZ45" s="22"/>
-      <c r="BA45" s="22"/>
-      <c r="BB45" s="22"/>
-      <c r="BC45" s="22"/>
-      <c r="BD45" s="22"/>
-      <c r="BE45" s="22"/>
-      <c r="BF45" s="22"/>
-      <c r="BG45" s="22"/>
-      <c r="BH45" s="22"/>
-      <c r="BI45" s="22"/>
-      <c r="BJ45" s="22"/>
-      <c r="BK45" s="22"/>
-      <c r="BL45" s="22"/>
-      <c r="BM45" s="22"/>
-      <c r="BN45" s="22"/>
-      <c r="BO45" s="22"/>
-      <c r="BP45" s="22"/>
-      <c r="BQ45" s="22"/>
-      <c r="BR45" s="22"/>
-      <c r="BS45" s="22"/>
-      <c r="BT45" s="22"/>
-      <c r="BU45" s="22"/>
-    </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="U47" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK47" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.15">
-      <c r="U48" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK48" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D49" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q49" s="11"/>
-      <c r="U49" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="11"/>
-      <c r="AK49" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL49" s="12"/>
-      <c r="AM49" s="12"/>
-      <c r="AN49" s="12"/>
-      <c r="AO49" s="12"/>
-      <c r="AP49" s="12"/>
-      <c r="AQ49" s="12"/>
-      <c r="AR49" s="12"/>
-      <c r="AS49" s="11"/>
+      <c r="AL49" s="10"/>
+      <c r="AM49" s="10"/>
+      <c r="AN49" s="10"/>
+      <c r="AO49" s="10"/>
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="10"/>
+      <c r="AS49" s="9"/>
     </row>
     <row r="50" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="14"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="15"/>
-      <c r="W50" s="15"/>
-      <c r="X50" s="15"/>
-      <c r="Y50" s="15"/>
-      <c r="Z50" s="15"/>
-      <c r="AA50" s="15"/>
-      <c r="AB50" s="15"/>
-      <c r="AC50" s="17"/>
-      <c r="AK50" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL50" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM50" s="15"/>
-      <c r="AN50" s="15"/>
-      <c r="AO50" s="15"/>
-      <c r="AP50" s="15"/>
-      <c r="AQ50" s="15"/>
-      <c r="AR50" s="15"/>
-      <c r="AS50" s="17"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="12"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="13"/>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="15"/>
+      <c r="AK50" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL50" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="13"/>
+      <c r="AP50" s="13"/>
+      <c r="AQ50" s="13"/>
+      <c r="AR50" s="13"/>
+      <c r="AS50" s="15"/>
     </row>
     <row r="51" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="12"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="9"/>
+      <c r="AK51" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL51" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="13"/>
+      <c r="AP51" s="13"/>
+      <c r="AQ51" s="13"/>
+      <c r="AR51" s="13"/>
+      <c r="AS51" s="15"/>
+    </row>
+    <row r="52" spans="4:53" x14ac:dyDescent="0.15">
+      <c r="D52" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="9"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="12"/>
+      <c r="AK52" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL52" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="13"/>
+      <c r="AP52" s="13"/>
+      <c r="AQ52" s="13"/>
+      <c r="AR52" s="13"/>
+      <c r="AS52" s="15"/>
+    </row>
+    <row r="53" spans="4:53" x14ac:dyDescent="0.15">
+      <c r="D53" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="15"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="13"/>
+      <c r="Z53" s="13"/>
+      <c r="AA53" s="13"/>
+      <c r="AB53" s="13"/>
+      <c r="AC53" s="15"/>
+      <c r="AK53" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL53" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="13"/>
+      <c r="AO53" s="13"/>
+      <c r="AP53" s="13"/>
+      <c r="AQ53" s="13"/>
+      <c r="AR53" s="13"/>
+      <c r="AS53" s="15"/>
+    </row>
+    <row r="54" spans="4:53" x14ac:dyDescent="0.15">
+      <c r="D54" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="15"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC54" s="12"/>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="17"/>
+      <c r="AM54" s="17"/>
+      <c r="AN54" s="17"/>
+      <c r="AO54" s="17"/>
+      <c r="AP54" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ54" s="17"/>
+      <c r="AR54" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS54" s="12"/>
+    </row>
+    <row r="55" spans="4:53" x14ac:dyDescent="0.15">
+      <c r="D55" s="18"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="12"/>
+    </row>
+    <row r="56" spans="4:53" x14ac:dyDescent="0.15">
+      <c r="D56" s="11"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="9"/>
+    </row>
+    <row r="57" spans="4:53" x14ac:dyDescent="0.15">
+      <c r="D57" s="14"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="15"/>
+      <c r="AK57" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="4:53" x14ac:dyDescent="0.15">
+      <c r="D58" s="14"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="15"/>
+      <c r="AK58" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="14"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="11"/>
-      <c r="AK51" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL51" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="15"/>
-      <c r="AO51" s="15"/>
-      <c r="AP51" s="15"/>
-      <c r="AQ51" s="15"/>
-      <c r="AR51" s="15"/>
-      <c r="AS51" s="17"/>
-    </row>
-    <row r="52" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D52" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="11"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="19"/>
-      <c r="X52" s="19"/>
-      <c r="Y52" s="19"/>
-      <c r="Z52" s="19"/>
-      <c r="AA52" s="19"/>
-      <c r="AB52" s="19"/>
-      <c r="AC52" s="14"/>
-      <c r="AK52" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL52" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM52" s="15"/>
-      <c r="AN52" s="15"/>
-      <c r="AO52" s="15"/>
-      <c r="AP52" s="15"/>
-      <c r="AQ52" s="15"/>
-      <c r="AR52" s="15"/>
-      <c r="AS52" s="17"/>
-    </row>
-    <row r="53" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D53" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="17"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="15"/>
-      <c r="W53" s="15"/>
-      <c r="X53" s="15"/>
-      <c r="Y53" s="15"/>
-      <c r="Z53" s="15"/>
-      <c r="AA53" s="15"/>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="17"/>
-      <c r="AK53" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL53" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM53" s="15"/>
-      <c r="AN53" s="15"/>
-      <c r="AO53" s="15"/>
-      <c r="AP53" s="15"/>
-      <c r="AQ53" s="15"/>
-      <c r="AR53" s="15"/>
-      <c r="AS53" s="17"/>
-    </row>
-    <row r="54" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D54" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="17"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC54" s="14"/>
-      <c r="AK54" s="20"/>
-      <c r="AL54" s="19"/>
-      <c r="AM54" s="19"/>
-      <c r="AN54" s="19"/>
-      <c r="AO54" s="19"/>
-      <c r="AP54" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ54" s="19"/>
-      <c r="AR54" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS54" s="14"/>
-    </row>
-    <row r="55" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D55" s="20"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D56" s="13"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="11"/>
-    </row>
-    <row r="57" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D57" s="16"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="17"/>
-      <c r="AK57" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="16"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="17"/>
-      <c r="AK58" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
-      <c r="AN58" s="12"/>
-      <c r="AO58" s="12"/>
-      <c r="AP58" s="12"/>
-      <c r="AQ58" s="12"/>
-      <c r="AR58" s="12"/>
-      <c r="AS58" s="11"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="10"/>
+      <c r="AS58" s="9"/>
     </row>
     <row r="59" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="20"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="14"/>
-      <c r="AK59" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL59" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM59" s="15"/>
-      <c r="AN59" s="15"/>
-      <c r="AO59" s="15"/>
-      <c r="AP59" s="15"/>
-      <c r="AQ59" s="15"/>
-      <c r="AR59" s="15"/>
-      <c r="AS59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="12"/>
+      <c r="AK59" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL59" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM59" s="13"/>
+      <c r="AN59" s="13"/>
+      <c r="AO59" s="13"/>
+      <c r="AP59" s="13"/>
+      <c r="AQ59" s="13"/>
+      <c r="AR59" s="13"/>
+      <c r="AS59" s="15"/>
     </row>
     <row r="60" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D60" s="13"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="11"/>
-      <c r="AK60" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL60" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM60" s="15"/>
-      <c r="AN60" s="15"/>
-      <c r="AO60" s="15"/>
-      <c r="AP60" s="15"/>
-      <c r="AQ60" s="15"/>
-      <c r="AR60" s="15"/>
-      <c r="AS60" s="17"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="9"/>
+      <c r="AK60" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL60" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM60" s="13"/>
+      <c r="AN60" s="13"/>
+      <c r="AO60" s="13"/>
+      <c r="AP60" s="13"/>
+      <c r="AQ60" s="13"/>
+      <c r="AR60" s="13"/>
+      <c r="AS60" s="15"/>
     </row>
     <row r="61" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D61" s="16"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="17"/>
-      <c r="AK61" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL61" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM61" s="15"/>
-      <c r="AN61" s="15"/>
-      <c r="AO61" s="15"/>
-      <c r="AP61" s="15"/>
-      <c r="AQ61" s="15"/>
-      <c r="AR61" s="15"/>
-      <c r="AS61" s="17"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="15"/>
+      <c r="AK61" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL61" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM61" s="13"/>
+      <c r="AN61" s="13"/>
+      <c r="AO61" s="13"/>
+      <c r="AP61" s="13"/>
+      <c r="AQ61" s="13"/>
+      <c r="AR61" s="13"/>
+      <c r="AS61" s="15"/>
     </row>
     <row r="62" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D62" s="16"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="17"/>
-      <c r="AK62" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL62" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM62" s="15"/>
-      <c r="AN62" s="15"/>
-      <c r="AO62" s="15"/>
-      <c r="AP62" s="15"/>
-      <c r="AQ62" s="15"/>
-      <c r="AR62" s="15"/>
-      <c r="AS62" s="17"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="15"/>
+      <c r="AK62" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL62" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="13"/>
+      <c r="AO62" s="13"/>
+      <c r="AP62" s="13"/>
+      <c r="AQ62" s="13"/>
+      <c r="AR62" s="13"/>
+      <c r="AS62" s="15"/>
     </row>
     <row r="63" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D63" s="20"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="14"/>
-      <c r="AK63" s="20"/>
-      <c r="AL63" s="19"/>
-      <c r="AM63" s="19"/>
-      <c r="AN63" s="19"/>
-      <c r="AO63" s="19"/>
-      <c r="AP63" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ63" s="19"/>
-      <c r="AR63" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AS63" s="14"/>
-      <c r="BA63" s="10" t="s">
-        <v>137</v>
+      <c r="D63" s="18"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="12"/>
+      <c r="AK63" s="18"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="17"/>
+      <c r="AP63" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ63" s="17"/>
+      <c r="AR63" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS63" s="12"/>
+      <c r="BA63" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="4:53" x14ac:dyDescent="0.15">
-      <c r="D64" s="13"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="9"/>
     </row>
     <row r="65" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D65" s="16"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="17"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="15"/>
     </row>
     <row r="66" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D66" s="16"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="17"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="15"/>
     </row>
     <row r="67" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D67" s="20"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="14"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="12"/>
     </row>
     <row r="68" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D68" s="13"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="9"/>
     </row>
     <row r="69" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D69" s="16"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="17"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="15"/>
     </row>
     <row r="70" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D70" s="16"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="17"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D71" s="20"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="14"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="12"/>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D72" s="16"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="17"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="15"/>
     </row>
     <row r="73" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D73" s="16"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="17"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="15"/>
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D74" s="16"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="17"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="15"/>
     </row>
     <row r="75" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D75" s="16"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="17"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="15"/>
     </row>
     <row r="76" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D76" s="16"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="17"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="15"/>
     </row>
     <row r="77" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D77" s="16"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="17"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D78" s="20"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="14"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4881,30 +4532,30 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="L30" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +4569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5123,267 +4774,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="1"/>
-      <c r="C3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="1"/>
-      <c r="C4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="1"/>
-      <c r="C5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="1"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C29" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>